--- a/biology/Zoologie/Emmelina_monodactyla/Emmelina_monodactyla.xlsx
+++ b/biology/Zoologie/Emmelina_monodactyla/Emmelina_monodactyla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Ptérophore commun (Emmelina monodactyla) est une espèce de lépidoptères (papillons) de la famille des Pterophoridae, de la sous-famille des Pterophorinae, et du genre Emmelina.
 </t>
@@ -511,7 +523,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a une envergure de 18 à 27 mm. Il vole presque toute l'année.
 			Emmelina monodactyla au repos
@@ -544,7 +558,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est très commun en Europe.
 </t>
@@ -575,9 +591,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa larve vit sur Convolvulus arvensis, Calystegia soldanella, Calystegia sepium, Chenopodium sp., Atriplex sp., Ipomoea batatas[1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa larve vit sur Convolvulus arvensis, Calystegia soldanella, Calystegia sepium, Chenopodium sp., Atriplex sp., Ipomoea batatas
 </t>
         </is>
       </c>
@@ -606,24 +624,94 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Décrit par Linné en 1758 sous le nom de Alucita monodactyla[2], reclassé par Tutt en 1905 dans le genre Emmelina, le nom de référence est Emmelina monodactyla.
-Synonymie
-Il y a une importante quantité de synonymes pour cette espèce[3]:
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Décrit par Linné en 1758 sous le nom de Alucita monodactyla, reclassé par Tutt en 1905 dans le genre Emmelina, le nom de référence est Emmelina monodactyla.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Emmelina_monodactyla</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emmelina_monodactyla</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Il y a une importante quantité de synonymes pour cette espèce:
 Phalaena Alucita monodactyla (Linnaeus, 1758)
-Phalaena bidactyla (Hochenwarth, 1785)[4]
+Phalaena bidactyla (Hochenwarth, 1785)
 Alucita pterodactyla (Hübner, 1805)
 Pterophorus flaveodactylus (Amary, 1840)
-Pterophorus cineridactylus (Fitch, 1855)[5]
-Pterophorus naevosidactylus (Fitch, 1855)[6]
+Pterophorus cineridactylus (Fitch, 1855)
+Pterophorus naevosidactylus (Fitch, 1855)
 Pterophorus impersonalis (Walker, 1864)
-Pterophorus pergracilidactylus (Packard, 1873)[7]
-Pterophorus barberi (Dyar, 1903)[8]
-Pterophorus pictipennis (Grinnell, 1908)[9]
-Pterophorus monodactylus f. rufa (Dufrane, 1960)
-Nom vernaculaire
-Ptérophore commun. Étymologie : du grec ancien signifiant « celui qui porte la plume » du grec ancien « plume » et « qui porte ».</t>
+Pterophorus pergracilidactylus (Packard, 1873)
+Pterophorus barberi (Dyar, 1903)
+Pterophorus pictipennis (Grinnell, 1908)
+Pterophorus monodactylus f. rufa (Dufrane, 1960)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Emmelina_monodactyla</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emmelina_monodactyla</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ptérophore commun. Étymologie : du grec ancien signifiant « celui qui porte la plume » du grec ancien « plume » et « qui porte ».</t>
         </is>
       </c>
     </row>
